--- a/autoApiTest/src/main/java/com/demo/testdata/数据驱动测试用例.xlsx
+++ b/autoApiTest/src/main/java/com/demo/testdata/数据驱动测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanlilin/workspace/autoApiTest/AutoApiTestDemo/autoApiTest/src/main/java/com/demo/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9B2B4C-C850-1548-8FF9-8D35F13AFF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1566200B-DC53-9747-A34E-73720E78136D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1000" windowWidth="24520" windowHeight="15000" xr2:uid="{B02BA126-9FD0-6043-ABDD-134FBF3D4322}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/v1/updateUserInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v1/getUserList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Login02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,27 +113,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UpdateUserInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetUserList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateUserInfo01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetUserList01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=20,username=李敖,password=98292,email=liao@skio.cn,create_time=2020-03-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUser02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=21,username=李敖,password=98292,email=liao@skio.cn,create_time=2020-03-14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AF99B7-662E-C24C-A124-143EFB70FD40}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -559,15 +547,15 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -579,15 +567,15 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -599,15 +587,15 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -619,52 +607,50 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/autoApiTest/src/main/java/com/demo/testdata/数据驱动测试用例.xlsx
+++ b/autoApiTest/src/main/java/com/demo/testdata/数据驱动测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanlilin/workspace/autoApiTest/AutoApiTestDemo/autoApiTest/src/main/java/com/demo/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1566200B-DC53-9747-A34E-73720E78136D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE10A471-5D2E-5949-93C5-CF662EDC2963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1000" windowWidth="24520" windowHeight="15000" xr2:uid="{B02BA126-9FD0-6043-ABDD-134FBF3D4322}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/autoApiTest/src/main/java/com/demo/testdata/数据驱动测试用例.xlsx
+++ b/autoApiTest/src/main/java/com/demo/testdata/数据驱动测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanlilin/workspace/autoApiTest/AutoApiTestDemo/autoApiTest/src/main/java/com/demo/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE10A471-5D2E-5949-93C5-CF662EDC2963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DAB5AA-3FF3-6E45-8EAF-8524E24F3D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1000" windowWidth="24520" windowHeight="15000" xr2:uid="{B02BA126-9FD0-6043-ABDD-134FBF3D4322}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="24520" windowHeight="15000" xr2:uid="{B02BA126-9FD0-6043-ABDD-134FBF3D4322}"/>
   </bookViews>
   <sheets>
     <sheet name="用户管理" sheetId="1" r:id="rId1"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username=李燃,password=112233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +126,10 @@
   </si>
   <si>
     <t>id=21,username=李敖,password=98292,email=liao@skio.cn,create_time=2020-03-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=李燃,password=1122ws</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -547,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -590,7 +590,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -610,7 +610,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -627,15 +627,15 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -647,10 +647,10 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
